--- a/Bang phân công công việc.xlsx
+++ b/Bang phân công công việc.xlsx
@@ -47,9 +47,6 @@
     <t>Ráp</t>
   </si>
   <si>
-    <t>Bàn giao code cho Trần Trọng Hiếu để ráp thành 1 web hoàn chỉnh</t>
-  </si>
-  <si>
     <t>Phần ráp giao diện SCSS</t>
   </si>
   <si>
@@ -57,14 +54,6 @@
   </si>
   <si>
     <t>Từ 14-17/11/2021</t>
-  </si>
-  <si>
-    <t>Thiết kế giao diện phần Home
-Thiết kế giao diện phần 
-(Trang Profile của User 
- Login, đăng nhập
-Trang Search
-Trang Danh Mục)</t>
   </si>
   <si>
     <t>Quốc Trưởng</t>
@@ -91,12 +80,36 @@
   <si>
     <t>Từ 26-28/11/2021</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Thiết kế giao diện phần Home
+Thiết kế giao diện phần 
+(Trang Profile của User 
+ Login, đăng nhập
+Trang Search
+Trang Danh Mục)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-Tạo wire Frame cho web</t>
+    </r>
+  </si>
+  <si>
+    <t>Bàn giao code cho Trần Trọng Hiếu để ráp thành 1 web hoàn chỉnh
+- Deploy lên web surge.sh</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -127,6 +140,12 @@
       <b/>
       <sz val="16"/>
       <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -661,8 +680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4:I4"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -694,7 +713,7 @@
         <v>2</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F3" s="26" t="s">
         <v>5</v>
@@ -712,17 +731,17 @@
         <v>4</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G4" s="29"/>
       <c r="H4" s="14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I4" s="15"/>
       <c r="J4" s="5"/>
@@ -733,15 +752,15 @@
         <v>1</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E5" s="24"/>
       <c r="F5" s="30" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G5" s="31"/>
       <c r="H5" s="16" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="I5" s="17"/>
       <c r="J5" s="1"/>
@@ -749,14 +768,14 @@
     </row>
     <row r="6" spans="3:11" ht="139.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" s="10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E6" s="25"/>
       <c r="F6" s="32" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G6" s="33"/>
       <c r="H6" s="18"/>
